--- a/entregable3/pendientes.xlsx
+++ b/entregable3/pendientes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21348" windowHeight="9935"/>
+    <workbookView windowWidth="21191" windowHeight="9935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pendientes" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="234">
   <si>
     <t>Pendientes Apps1</t>
   </si>
@@ -695,6 +695,30 @@
   </si>
   <si>
     <t>Av. Arnaldo Marquez 1219</t>
+  </si>
+  <si>
+    <t>N Doc</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Direccion:</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Servicios Elegidos</t>
+  </si>
+  <si>
+    <t>total de servicios</t>
+  </si>
+  <si>
+    <t>Generar Factura</t>
   </si>
 </sst>
 </file>
@@ -702,9 +726,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -733,7 +757,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,8 +770,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,20 +835,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,15 +871,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,21 +879,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,7 +892,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,7 +901,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +949,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,49 +1063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,113 +1093,131 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1088,6 +1232,35 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,31 +1304,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,27 +1333,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,154 +1359,190 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
@@ -1518,6 +1698,64 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Right Arrow 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="1647825"/>
+          <a:ext cx="198120" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1783,54 +2021,54 @@
   <sheetPr/>
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.1111111111111" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="14" customWidth="1"/>
+    <col min="3" max="3" width="43.1111111111111" style="14" customWidth="1"/>
     <col min="6" max="6" width="12.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="20"/>
+      <c r="G4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="20">
         <v>1</v>
       </c>
       <c r="I4">
@@ -1839,16 +2077,16 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="G5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="20">
         <v>2</v>
       </c>
       <c r="I5">
@@ -1857,88 +2095,88 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" ht="28.8" spans="1:4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" ht="28.8" spans="2:5">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="15" ht="43.2" spans="2:2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="2:2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" ht="72" spans="3:3">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5672,7 +5910,7 @@
       <c r="F6" t="s">
         <v>186</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="13">
         <v>44232.8992881597</v>
       </c>
       <c r="H6" t="s">
@@ -6081,15 +6319,110 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="11.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15"/>
+    <row r="2" ht="15.15" spans="2:8">
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" ht="15.15" spans="5:8">
+      <c r="E3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="5" ht="15.15" spans="4:8">
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="7" ht="15.15" spans="2:6">
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" ht="15.15" spans="2:7">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" ht="15.15"/>
+    <row r="15" ht="15.15" spans="5:7">
+      <c r="E15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G17:H17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>